--- a/Mon Code/topic_analysis_details.xlsx
+++ b/Mon Code/topic_analysis_details.xlsx
@@ -465,21 +465,21 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>work, gallery, cultural, arts, young</t>
+          <t>art org, org, projects, arts, work</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Artistic collaboration and open expression foster creativity and community engagement.</t>
+          <t>Collaboration and experimentation foster artistic growth and community.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Artists Club Coffre-Fort, / 77, Island</t>
+          <t>/ 77, BLINDSIDE, KINGS Artist Run</t>
         </is>
       </c>
     </row>
@@ -488,21 +488,21 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>madrid, amsterdam, territory, experimentation, contemporary art projects</t>
+          <t>pierre, mainly, spaces art, steps, italy</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Artists and creatives collaborate to engage communities through cultural initiatives.</t>
+          <t>Artists create and showcase unique works in independent, community-driven spaces.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Clovis XV, El Mentidero, Mutatio</t>
+          <t>HIT, 63rd - 77th STEPS, TRIPLA</t>
         </is>
       </c>
     </row>
@@ -515,17 +515,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>houses, city, century, concrete, CITY</t>
+          <t>century, paintings, museum, concrete, houses</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Artists create and showcase innovative work in community-driven, non-commercial spaces</t>
+          <t>Art and community thrive in unconventional, historic spaces.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>after the butcher, Büro Berlin, Galerie de LOCH</t>
+          <t>Museo de Arte Abstracto Español, after the butcher, Ladenatelier Scheib</t>
         </is>
       </c>
     </row>
@@ -538,17 +538,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>days, existence, subject, CITY, jean</t>
+          <t>fashion, press, poetry, took, presented</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Artists collaborate to create and promote experimental contemporary art and community engagement.</t>
+          <t>Contemporary art fosters cultural dialogue and nurtures emerging artistic talent.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Ladenatelier Scheib, Kippenbergers Büro, Allgirls</t>
+          <t>Zeta Gallery, Zona, Centro Tool</t>
         </is>
       </c>
     </row>
@@ -557,21 +557,21 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>stands, turned, project space, wanted, related</t>
+          <t>popular, going, editions, narrative, submissions</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Collaboration and experimentation foster artistic growth and community.</t>
+          <t>The project emphasizes community engagement and cultural exchange through information sharing and creative expression.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>periscope, Infozone, 19</t>
+          <t>Infozone, AMAVADA, Art Metropole</t>
         </is>
       </c>
     </row>
@@ -580,21 +580,21 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>self, collection, joint, ateliers, different</t>
+          <t>club, brussels, stone, wood, group</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Art institutions evolve to foster global artistic dialogue and critical societal understanding.</t>
+          <t>Artists transform a shared space into a collaborative art project.</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>W, L'espace d'en bas, Le Wonder</t>
+          <t>Artists Club Coffre-Fort, Etablissement d'en face, A-B Projects</t>
         </is>
       </c>
     </row>
@@ -603,21 +603,21 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>generator, square, north, designs, apartment</t>
+          <t>artists space, critical, artists work, york, discourse</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Art and community thrive despite political and historical challenges.</t>
+          <t>Artists create spaces for community, discourse, and challenging conventional categories.</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Le générateur, Duplex100m2, MOSQUITO COAST FACTORY</t>
+          <t>table, Apparatus Projects, ESPAI COLONA</t>
         </is>
       </c>
     </row>
@@ -630,17 +630,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>diversity, crisis, artistes, press, water</t>
+          <t>filliou, fluxus, shop, robert filliou, adrian</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Artpool facilitated underground art and cultural exchange despite restrictive policies.</t>
+          <t>Artistic collectives transform abandoned spaces into vibrant cultural hubs.</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Immanence, EDEL EXTRA, ATELIER D’ESTAMPE IMAGO</t>
+          <t>Triangle-Asterides, Grande Surface, warenlift</t>
         </is>
       </c>
     </row>
@@ -653,17 +653,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>house, natural, image, step, denis</t>
+          <t>music, hall, areas, important, private</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Art fosters community engagement and social change through open, experimental expression.</t>
+          <t>Art and creativity thrive in shared, affordable, and inclusive urban spaces.</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Maison Jaune, ART HOUSE, The Mothership</t>
+          <t>6b, AARAU, MŰTŐ</t>
         </is>
       </c>
     </row>
@@ -676,17 +676,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>poetry, milan, going, tool, art spaces</t>
+          <t>france, laurence, commission, fiction, beautiful</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Artists from diverse backgrounds collaborate to create and present interdisciplinary, transcultural works</t>
+          <t>Contemporary art fosters global exchange and community engagement through diverse exhibitions and publications</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>AMAVADA, Centro Tool, Mercato del Sale</t>
+          <t>In extenso, France Fiction, Le Commissariat</t>
         </is>
       </c>
     </row>
@@ -699,17 +699,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>atelier, print, artist centre, techniques, technologies</t>
+          <t>kunstverein, son, editors, non profit organization, profit organization</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>The project emphasizes community-driven information sharing and cultural preservation to foster engagement and connection</t>
+          <t>Collaboration and innovation thrive in adaptable creative community spaces.</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Galerie RDV, Alberta Printmakers (A/P), Atelier Presse Papier</t>
+          <t>Bootlab, Giannozzo Kunstverein, Allgirls</t>
         </is>
       </c>
     </row>
@@ -722,17 +722,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>day day, children, day, pauline, designs</t>
+          <t>atelier, exhibition organized, exhibitions artists, michel, damien</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Artistic collaboration and community engagement drive professional growth and cultural impact.</t>
+          <t>Artists collaborate to create shared spaces for experimentation and collective creation.</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>MAISON PIEUVRE, A.Polina, Pauline Perplexe</t>
+          <t>Atelier de l’Île, GOSWELL ROAD, ERRATUM</t>
         </is>
       </c>
     </row>
@@ -745,17 +745,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>red, art studio, contemporary artists, artist centre, things</t>
+          <t>free, athens, enterprise, artistic creation, creations</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Artists create spaces for community, discourse, and experimentation beyond traditional institutions.</t>
+          <t>Art can transform and activate underutilized urban spaces for community engagement.</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>aceartinc., Red Cactus Art Studio, mezcla</t>
+          <t>L'impasse, URGENT PARADISE, Enterprise Projects</t>
         </is>
       </c>
     </row>
@@ -768,17 +768,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>fellowship, infrastructure, quebec, contexts, organization</t>
+          <t>commissions, brussels, critics, opening, gallery</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Art and culture can transform and connect communities through collaborative, imaginative, and</t>
+          <t>Supporting and showcasing emerging artists, particularly women, drives contemporary art initiatives</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>221A, Artexte, Action Art Actuel (AAA)</t>
+          <t>La GAD MARSEILLE, Clovis XV, apes&amp;castles</t>
         </is>
       </c>
     </row>
@@ -791,17 +791,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>marc, factory, lee, weeks, aimed</t>
+          <t>poetry, milan, visual poetry, sale, del</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>A space fosters diverse artistic expression and community engagement through accessible resources and collaborative</t>
+          <t>Art and literature intersect to foster innovative, interdisciplinary dialogue.</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>URGENT PARADISE, Brain Factory, PLATEFORME</t>
+          <t>Artspeak, Mercato del Sale, Centro Suolo</t>
         </is>
       </c>
     </row>
@@ -814,17 +814,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>works art, archive, academy, summer, fields</t>
+          <t>fine arts, academy fine, underground, fine, academy</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Artists transform abandoned spaces into vibrant cultural hubs through collective effort.</t>
+          <t>Art fosters innovation and accessibility in public spaces.</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Autocenter, CONA, La Couleuvre</t>
+          <t>Patara Gallery, The Why Not Gallery, MAGMA</t>
         </is>
       </c>
     </row>
@@ -837,17 +837,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>public space, night, alternative, streets, window</t>
+          <t>madrid, amsterdam, independent space, artistic research, articles</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Artists use radio to foster dialogue, share experiences, and explore contemporary creation</t>
+          <t>Artists and writers collaborate in intimate, adaptable spaces for creative expression.</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Galerie Loulou Lasard, apes&amp;castles, SOX</t>
+          <t>BIKINI, bologna.cc, marcablanca</t>
         </is>
       </c>
     </row>
@@ -860,17 +860,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>practice, project space, master, tim, design</t>
+          <t>fellowship, infrastructure, art city, contexts, organization</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Art fosters community engagement and social integration through collaborative, inclusive creative initiatives.</t>
+          <t>Art fosters community growth and accessibility through creative expression and support.</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>FRICHE.SPACE, Marwan, Flip</t>
+          <t>Art City, 221A, Action Art Actuel (AAA)</t>
         </is>
       </c>
     </row>
@@ -883,17 +883,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>short, everyday, hundreds artists, rented, conventional</t>
+          <t>lyon, moved, street, studio, supporting</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Artists transform a found space into a collaborative exhibition venue.</t>
+          <t>Artistic spaces evolve and adapt to foster diverse, cross-disciplinary creative expressions</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>La générale en manufacture, INTERIOR and the collectors, The ister</t>
+          <t>One gee in fog, La salle de bain, Studio Voltaire</t>
         </is>
       </c>
     </row>
@@ -906,17 +906,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>artists art, months, production, collaboration, school environment</t>
+          <t>media, archive, society, online, hub</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Contemporary art fosters global exchange and community engagement through diverse exhibitions and publications</t>
+          <t>Art fosters global dialogue and supports local artists amidst changing cultural landscapes.</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>ChezKit, QUINCONCE, Treize</t>
+          <t>TARS, New Media Society, Live Club Ssam (SSamzie Space)</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>residencies, programme, organisations, based artists, london</t>
+          <t>recent years, turned, regularly, academy, constantly</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Community spaces foster creative and technological innovation across various media.</t>
+          <t>Art and community intersect to foster creative experimentation and social engagement.</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Fructôse, Gasworks, warenlift</t>
+          <t>XI box, rum46, 19</t>
         </is>
       </c>
     </row>
@@ -952,17 +952,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>creativity, science, foundation, premises, research</t>
+          <t>film, known, buy, materials, resident</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Artistic expression thrives in small, adaptable spaces despite logistical challenges</t>
+          <t>Contemporary art thrives through collaborative spaces and direct creator-collector connections</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>One gee in fog, TARS, Artos House</t>
+          <t>L'H du Siège, Zebra3 / Buy-sellf, kinema ikon</t>
         </is>
       </c>
     </row>
@@ -975,17 +975,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>press, took, presented, archives, series</t>
+          <t>created, curatorial, seven, europe, brussels</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Art supports and connects artists, fostering growth and societal engagement.</t>
+          <t>Art and everyday life intersect through experimental, itinerant curation.</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Zeta Gallery, Zona, Zebra3 / Buy-sellf</t>
+          <t>HECTOLITER, Ecart, The ister</t>
         </is>
       </c>
     </row>
@@ -998,17 +998,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>laboratory, articles, like, street, spaces</t>
+          <t>vienna, creates, community, art org, org</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Artistic spaces foster contemporary creativity and community engagement through diverse exhibitions and events.</t>
+          <t>Art fosters community engagement and cultural exchange across borders.</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>LAPSUS, BIKINI, Les Limbes</t>
+          <t>YARAT Contemporary Art Space, artellewa, 0gms</t>
         </is>
       </c>
     </row>
@@ -1021,17 +1021,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>organization, laboratory, video, stations, supported</t>
+          <t>visual artists, visual artist, visual, wine, practice</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Art fosters community engagement and cultural exchange across diverse regions.</t>
+          <t>Art supports and advocates for artists' professional growth and societal engagement.</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>HECTOLITER, La Mamelle/Art Com, e/lAboRaTory</t>
+          <t>identité remarquable, NICC, Flip</t>
         </is>
       </c>
     </row>
@@ -1044,17 +1044,17 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>appreciation, contemporary visual, lived, response, generation</t>
+          <t>contemporary creation, creation, plastic, today, follows</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>The text explores the intersection of visual art and writing through collaborative, interdisciplinary initiatives</t>
+          <t>Artistic spaces foster creativity, community, and diverse contemporary art experiences.</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Ateliê Coletivo 2E1, 22 rue muller, L'épicerie</t>
+          <t>Galerie RDV, monopôle, Les Limbes</t>
         </is>
       </c>
     </row>
@@ -1067,17 +1067,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>location, meanings, experimental projects, stages, disciplines arts</t>
+          <t>michele, diversity, charlie, crisis, contemporary artists</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Contemporary art can revitalize and engage communities through accessible, independent exhibitions.</t>
+          <t>Contemporary art spaces foster creativity and diversity amidst evolving cultural and economic landscapes.</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>KINGS Artist Run, IN OUT</t>
+          <t>Immanence, Néon</t>
         </is>
       </c>
     </row>
@@ -1090,17 +1090,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>australia, expanded, exhibiting, england, studio</t>
+          <t>organization, video, stations, supported, worldwide</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Contemporary art challenges traditional exhibition formats and authority dynamics.</t>
+          <t>Artists collaborate to challenge traditional art boundaries and foster discourse.</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>GERTRUDE CONTEMPORARY, Angle art contemporain</t>
+          <t>Irmavep Club, La Mamelle/Art Com</t>
         </is>
       </c>
     </row>
@@ -1113,17 +1113,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>fashion, germany, south, exhibited, downtown</t>
+          <t>project space, meters, project artists, space different, big</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Artist-driven initiatives foster cultural growth and innovative artistic exchange.</t>
+          <t>Artists collaborate and share spaces to foster global creative community.</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Rinomina, Fashion Moda</t>
+          <t>Flutgraben e.V, Bell Street Project Space</t>
         </is>
       </c>
     </row>
@@ -1136,17 +1136,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>tools, limoges, recent years, academy, recent</t>
+          <t>arts education, education, communication, want, developing</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Art spaces can adapt and provoke dialogue to reflect and shape cultural change.</t>
+          <t>Art spaces can foster social change through collaborative, accessible cultural creation and education.</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>rum46, Roue libre</t>
+          <t>A4 Sounds, MALA FAMA</t>
         </is>
       </c>
     </row>
@@ -1159,17 +1159,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>installed, district, caroline, artists installed, union</t>
+          <t>romania, artspace, cluj, hungary, countries</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Artistic collaboration and community engagement drive experimental creative spaces.</t>
+          <t>Art initiatives bridge local and international contemporary art scenes.</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Les 2 portes, MEAN</t>
+          <t>Easttopics, Lateral ArtSpace</t>
         </is>
       </c>
     </row>
@@ -1182,17 +1182,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>vienna, participated, gallery, limited, dedicated</t>
+          <t>intervention, intention, contributing, interventions, george</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Artistic spaces foster creativity, collaboration, and community through flexible, artist-driven</t>
+          <t>Artists collaborate to preserve and exhibit ephemeral, personally significant works.</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>The Why Not Gallery, 0gms</t>
+          <t>ELA projects, artă</t>
         </is>
       </c>
     </row>
@@ -1205,17 +1205,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>commission, production structure, shares, interdisciplinary art, union</t>
+          <t>children, dijon, workshop, seven, evolved</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Art fosters community empowerment and creative expression for all.</t>
+          <t>Artistic collaboration fosters creativity and community growth.</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Fer de Lance, Le Commissariat</t>
+          <t>A.Polina, Atelier White Cubi</t>
         </is>
       </c>
     </row>
@@ -1228,17 +1228,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>committee, transmission, glasgow, michael, standard</t>
+          <t>production, artists commissioners, rock, production structure, companies</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Artistic spaces foster exchange, creation, and dialogue among emerging artists.</t>
+          <t>The text explores how diverse groups maximize their capabilities through collaborative, adaptive processes.</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Transmission, Artcite Inc.</t>
+          <t>L'epicerie, Treize</t>
         </is>
       </c>
     </row>
@@ -1251,17 +1251,17 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>discover, service, multidisciplinary, sound, monthly</t>
+          <t>current art, public space, purpose, jean, experiment</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Art supports and amplifies marginalized voices to transform societal perceptions.</t>
+          <t>Artistic experimentation and community engagement through evolving exhibition spaces.</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>La Jetée, VARIAe</t>
+          <t>Où, Le Château</t>
         </is>
       </c>
     </row>
@@ -1274,17 +1274,17 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>opening, thirty, association aims, artists invited, recording</t>
+          <t>laboratory, like, spaces, rhythm, moment</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>The space fosters international art exchange and local artist support through exhibitions, resid</t>
+          <t>Art and technology foster creativity and community in repurposed industrial spaces.</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Espace 29, Botschaft</t>
+          <t>LAPSUS, e/lAboRaTory</t>
         </is>
       </c>
     </row>
@@ -1297,17 +1297,17 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>editors, non profit organization, profit organization, history, northern</t>
+          <t>western, interdisciplinary, media, media art, media artists</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Contemporary art is fostered through collaborative exhibitions and direct artist engagement.</t>
+          <t>Art fosters interdisciplinary experimentation and innovation.</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Bootlab, Sonnenstube</t>
+          <t>Western Front, METALAB / RETICULAR</t>
         </is>
       </c>
     </row>
@@ -1320,17 +1320,17 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>family, born, annual exhibitions, exhibitions conferences, body</t>
+          <t>natural, step, river, steps, encourages</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Contemporary art fosters societal dialogue and cultural awareness.</t>
+          <t>Art fosters interdisciplinary exploration and continuous evolution.</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Diagonale, Easttopics</t>
+          <t>l'Œil de Poisson, The Mothership</t>
         </is>
       </c>
     </row>
@@ -1343,17 +1343,17 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>systems, amsterdam, residential, relationships, organizing</t>
+          <t>pauline, designs, production, self, production art</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Art challenges traditional boundaries and engages audiences actively.</t>
+          <t>Artists independently create, exhibit, and publish diverse projects in a shared,</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Lieu d'exposition en voie de déplacement (LEVD), TILDE</t>
+          <t>L'espace d'en bas, Pauline Perplexe</t>
         </is>
       </c>
     </row>
@@ -1366,17 +1366,17 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>exhibition organized, exhibitions artists, damien, james, format</t>
+          <t>artist art, currently, associative, independent exhibition, painting video</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Artists collaborate and innovate within shared, experimental spaces.</t>
+          <t>Art transcends traditional spaces to blend various mediums and realities.</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Deborah Bowmann, ERRATUM</t>
+          <t>attrape-couleurs, ZABRISKIE POINT</t>
         </is>
       </c>
     </row>
@@ -1389,17 +1389,17 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>extended, pauline, houses, gallery, opening</t>
+          <t>tools, limoges, association, promotes, stay</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Artists collectively challenged traditional boundaries through interdisciplinary experimentation.</t>
+          <t>Artists collaborate and innovate in shared, supportive communities.</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>La GAD MARSEILLE, ACUD</t>
+          <t>Fructôse, Roue libre</t>
         </is>
       </c>
     </row>
@@ -1412,17 +1412,17 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>wishes, residency, studio, weeks, artist residency</t>
+          <t>station, nice, service, drawings, build</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Emerging artists, especially women, are championed through innovative, collaborative gallery</t>
+          <t>Contemporary art is defended and explored through collaborative, educational initiatives.</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>ECHANGEUR22, PILOTENKUECHE</t>
+          <t>La Station, À Suivre...</t>
         </is>
       </c>
     </row>
@@ -1435,17 +1435,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>laurence, france, fiction, beautiful, marc</t>
+          <t>factory, lee, exhibition area, art org, young artists</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>A collaborative space fosters multidisciplinary art and community engagement.</t>
+          <t>Collaboration between artists and curators fosters innovative, undiluted creative</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>In extenso, France Fiction</t>
+          <t>Brain Factory, 40mcube</t>
         </is>
       </c>
     </row>
@@ -1458,17 +1458,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>ground, architecture, artist space, art area, diffusion contemporary</t>
+          <t>rooms, project space, reception, limoges, visiting</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Art fosters community and inclusivity through collaborative, experimental, and interdisciplinary practices</t>
+          <t>Artists collaborate and exhibit in shared, accessible spaces to foster creativity and community</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>HIT, Ground</t>
+          <t>The Number Shop, IF</t>
         </is>
       </c>
     </row>
@@ -1481,17 +1481,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>encounters, stop, biennial, wish, dan</t>
+          <t>public space, rented, conventional, alternative, interior</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Contemporary art spaces foster creativity and community through diverse, often unconventional,</t>
+          <t>Art transforms everyday spaces into intimate, personal exhibition experiences.</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>balak, Balamuc</t>
+          <t>INTERIOR and the collectors, SOX</t>
         </is>
       </c>
     </row>
@@ -1504,17 +1504,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>works art, photography, outside, planned, art media</t>
+          <t>house, denis, gives, researchers, housing</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Art fosters community engagement, education, and cultural exchange through collaborative and inclusive</t>
+          <t>Artistic collaboration fosters community engagement and multidisciplinary experimentation.</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Takeawaygallery, CAMERA</t>
+          <t>Espace Labo, Maison Jaune</t>
         </is>
       </c>
     </row>
@@ -1527,17 +1527,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>surface, adrian, damien, created artists, artists based</t>
+          <t>self, collection, ateliers, managed, physical</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Art galleries in urban underground spaces foster experimental art and accessibility.</t>
+          <t>Artists collaborate and innovate in a self-directed, shared creative space.</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>De La Charge, Grande Surface</t>
+          <t>Le Wonder, MARS</t>
         </is>
       </c>
     </row>
@@ -1550,17 +1550,17 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>lab, thing, sharing, created, need</t>
+          <t>ground, artist space, like minded, encourage dialogue, easily</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Art fosters community growth and professional development through diverse, experimental initiatives.</t>
+          <t>Artists collaborate to create open, experimental spaces for contemporary art discourse.</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>The Lab, PeepSpace</t>
+          <t>Ground, PINCE</t>
         </is>
       </c>
     </row>
@@ -1573,17 +1573,17 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>steps, situated, mainly, space intended, limits</t>
+          <t>work work, work, employment, day day, france</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Collaboration and adaptability foster artistic expression and growth.</t>
+          <t>Art fosters global collaboration and addresses societal issues through diverse, temporary projects.</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>63rd - 77th STEPS, DAS ESSZIMMER</t>
+          <t>Dos Mares, MAISON PIEUVRE</t>
         </is>
       </c>
     </row>
@@ -1596,17 +1596,17 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>graphic, graphic design, brussels, french, university</t>
+          <t>situ, tim, objects, october, growing</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Contemporary art spaces foster creation, diversity, and community among artists.</t>
+          <t>Artists collectively explore and redefine their roles and spaces in contemporary society.</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Theophile's Papers, Sorbonne Artgallery</t>
+          <t>Spazio In Situ, Marwan</t>
         </is>
       </c>
     </row>
@@ -1619,17 +1619,17 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>italy, artist space, space composed, athens, happenings</t>
+          <t>projets, avant, avant garde, garde, doors</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Artists collaborate and challenge conventional art boundaries through collective efforts and diverse engagements.</t>
+          <t>Artistic spaces foster diverse, experimental communities.</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>TRIPLA, 3 137</t>
+          <t>El Mentidero, CAPSULE 38</t>
         </is>
       </c>
     </row>
@@ -1642,17 +1642,17 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>opening, artists present work, dedicated contemporary creation, dedicated exhibition, exchange</t>
+          <t>contemporary artists, exhibition hall, canada, artist centre, documentation</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Artistic collaboration and community engagement foster creative growth.</t>
+          <t>Supporting emerging artists, contemporary art centers foster creative growth and cultural dialogue.</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>L'Œil de boeuf, Abilene</t>
+          <t>aceartinc., Artexte</t>
         </is>
       </c>
     </row>
@@ -1665,17 +1665,17 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>dijon, workshop, seven, school, area</t>
+          <t>profit artist centre, profit artist, non profit artist, canadian, gallery space</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Artists collaborate to create shared workspaces fostering creativity and community.</t>
+          <t>Artist-run centers foster community engagement and promote contemporary art through diverse programming and resources</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>XI box, Atelier White Cubi</t>
+          <t>Alberta Printmakers (A/P), Artcite Inc.</t>
         </is>
       </c>
     </row>
@@ -1688,17 +1688,17 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>documents, contributions, museum, video, wide range</t>
+          <t>residencies, australia, programme, international, international artists</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Art fosters innovation and community through experimental, non-traditional spaces.</t>
+          <t>This organization supports and showcases emerging and established artists, fostering innovation and</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>GRIMMUSEUM, Paranorm</t>
+          <t>GERTRUDE CONTEMPORARY, Gasworks</t>
         </is>
       </c>
     </row>
@@ -1711,17 +1711,17 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>solo, lieu, common, levels, club</t>
+          <t>generator, way, life, remains, existence</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Art thrives in unconventional, accessible spaces fostering experimental creativity.</t>
+          <t>Abandoned spaces can foster new life, art, and community.</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>LIEU-COMMUN, Club solo</t>
+          <t>FRICHE.SPACE, Le générateur</t>
         </is>
       </c>
     </row>
@@ -1734,17 +1734,17 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>narrative, question, object, opens, volume</t>
+          <t>current art, city city, centre, designs, current</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Art spaces foster emerging artists and interdisciplinary collaboration.</t>
+          <t>Art spaces foster international collaboration and visibility for local contemporary artists.</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>STANDARDS, AU LIEU - éditions extensibles</t>
+          <t>Duplex100m2, 3e impérial</t>
         </is>
       </c>
     </row>
@@ -1757,17 +1757,17 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>audio, legendary, york, matta, gordon matta clark</t>
+          <t>residences, individual, england, responsible, collective exhibitions</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Collaboration and accessibility foster artistic growth and community engagement.</t>
+          <t>Contemporary art fosters intimate connections and shared experiences between artists and audiences.</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>attrape-couleurs, The Clocktower Gallery</t>
+          <t>Angle art contemporain, AdMare</t>
         </is>
       </c>
     </row>
@@ -1780,17 +1780,17 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>submissions, art city, canada, accessible, programming</t>
+          <t>association, promotion, communication, meetings discussions, artists institutions</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Artists transform personal spaces into unconventional, intimate exhibition environments.</t>
+          <t>Art and culture foster connections across ages and backgrounds.</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Art City, Art Metropole</t>
+          <t>EDEL EXTRA, mezcla</t>
         </is>
       </c>
     </row>
@@ -1803,17 +1803,17 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>work work, current art, work, france, centre</t>
+          <t>artspace, communities, street, centres, current</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Art fosters community engagement and interdisciplinary experimentation.</t>
+          <t>Art fosters dialogue and community engagement through diverse, risk-taking artistic expressions</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Dos Mares, 3e impérial</t>
+          <t>AKA, ARTSPACE</t>
         </is>
       </c>
     </row>
@@ -1826,17 +1826,17 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>wood, stone, thomas, decided, atelier</t>
+          <t>laurence, king, beaux arts, school, artist work</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Collaboration and adaptability drive collective creative and productive endeavors.</t>
+          <t>Artists collaborate to create and challenge traditional exhibition formats.</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Atelier de l’Île, Atelier Silex</t>
+          <t>3 137, Glassbox</t>
         </is>
       </c>
     </row>
@@ -1849,17 +1849,17 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>film screenings, activities, film, curating, document</t>
+          <t>committed, performance space, thinkers, artists contemporary, brazilian</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Artistic experimentation and community engagement through accessible, adaptable exhibition spaces.</t>
+          <t>Artists collaborate to create spaces fostering contemporary art dialogue and growth.</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>COHERENT, La Maudite</t>
+          <t>COHERENT, current space</t>
         </is>
       </c>
     </row>
@@ -1872,17 +1872,17 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>artist project, discursive, cultivate, photo, chicago</t>
+          <t>square, north, district, factory, art architecture</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Art and technology foster creativity in youth through experimental, interconnected, yet transient spaces</t>
+          <t>Art and culture revitalize former industrial spaces into vibrant communities.</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>KABINET, table</t>
+          <t>798 District Limited, Studio Delta</t>
         </is>
       </c>
     </row>
@@ -1895,17 +1895,17 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>western, program, melbourne, interdisciplinary, experimental art</t>
+          <t>gallery, south, steel, artiste, berlinian</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Experimental art fosters interdisciplinary creativity and innovation.</t>
+          <t>Artistic evolution and cultural exchange thrive in dynamic, adaptive spaces.</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>West Space, Western Front</t>
+          <t>Galerie Loulou Lasard, Palette Terre</t>
         </is>
       </c>
     </row>
@@ -1918,17 +1918,17 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>young emerging, melbourne, broader, gallery, young emerging artists</t>
+          <t>experimentation, celebrated, universe, combines, innovation</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Art fosters interdisciplinary exploration and continuous innovation.</t>
+          <t>Contemporary art spaces foster innovation, education, and collaboration among emerging artists.</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>TCB, TEC - Théorie des Espaces Courbes</t>
+          <t>Espacio O, JULIO</t>
         </is>
       </c>
     </row>
@@ -1941,17 +1941,17 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>pierre, hong, central, art institutions, spaces art</t>
+          <t>installed, district, caroline, artists installed, union</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Printed art is promoted as an accessible, evolving medium connecting artists and audiences</t>
+          <t>Artists collaborate to create shared, independent studio and exhibition spaces.</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Para Site, Rectangle</t>
+          <t>Les 2 portes, MEAN</t>
         </is>
       </c>
     </row>
@@ -1964,17 +1964,17 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>hall, purposes, purpose, allows, passed</t>
+          <t>stands, wanted, helps, continuously, exists</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Artists collaborate and innovate in a self-directed, communal creative space.</t>
+          <t>Collaboration and adaptability foster artistic experimentation and growth.</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Le Château, Le Hall</t>
+          <t>W, periscope</t>
         </is>
       </c>
     </row>
@@ -1987,17 +1987,17 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>ateliers, association, period, residence, artists particular</t>
+          <t>past, temporal, spatial, double, art space</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Artistic collaboration and adaptability foster innovative, community-driven creative spaces.</t>
+          <t>Art fosters innovation and connection outside traditional institutional frameworks.</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Ateliers Vortex, Künstlerhaus am Acker</t>
+          <t>Openspace Bae, CONICAL</t>
         </is>
       </c>
     </row>
@@ -2010,17 +2010,17 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>music, areas, private, border, important</t>
+          <t>art theory, art media, cultivate, stimulating, non</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Contemporary art thrives in unconventional, immersive spaces.</t>
+          <t>Art spaces foster emerging artists and interdisciplinary collaboration.</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>6b, AARAU</t>
+          <t>CAMERA, Indecis</t>
         </is>
       </c>
     </row>

--- a/Mon Code/topic_analysis_details.xlsx
+++ b/Mon Code/topic_analysis_details.xlsx
@@ -474,7 +474,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Collaboration and experimentation foster artistic growth and community.</t>
+          <t>The main theme is fostering artistic collaboration and growth through shared, non-com</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -497,7 +497,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Artists create and showcase unique works in independent, community-driven spaces.</t>
+          <t>Artist-run spaces foster unique, boundary-pushing contemporary art experiences.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Art and community thrive in unconventional, historic spaces.</t>
+          <t>Art and community can thrive even under restrictive conditions.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -543,7 +543,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Contemporary art fosters cultural dialogue and nurtures emerging artistic talent.</t>
+          <t>Contemporary art fosters cultural dialogue and nurtures artistic innovation.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -566,7 +566,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>The project emphasizes community engagement and cultural exchange through information sharing and creative expression.</t>
+          <t>The main theme is fostering community engagement through shared information and cultural experiences.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -589,7 +589,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Artists transform a shared space into a collaborative art project.</t>
+          <t>Artists find collective purpose and collaboration through shared space and experiences.</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -612,7 +612,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Artists create spaces for community, discourse, and challenging conventional categories.</t>
+          <t>Artists challenge conventional boundaries to foster community and critical discourse through experimental, collaborative</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Artistic collectives transform abandoned spaces into vibrant cultural hubs.</t>
+          <t>Artists transform abandoned spaces into vibrant cultural hubs through collective effort and creativity</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -658,7 +658,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Art and creativity thrive in shared, affordable, and inclusive urban spaces.</t>
+          <t>Art and creativity thrive in inclusive, collaborative, and affordable community spaces.</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -704,7 +704,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Collaboration and innovation thrive in adaptable creative community spaces.</t>
+          <t>Community spaces foster creativity and collaboration across various media and artistic disciplines.</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -750,7 +750,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Art can transform and activate underutilized urban spaces for community engagement.</t>
+          <t>Art can transform and activate underutilized spaces for community engagement.</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -773,7 +773,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Supporting and showcasing emerging artists, particularly women, drives contemporary art initiatives</t>
+          <t>Emerging artists, especially women, are championed and given platforms to showcase</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -796,7 +796,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Art and literature intersect to foster innovative, interdisciplinary dialogue.</t>
+          <t>The text explores the fusion of visual art and writing in contemporary artistic practices and</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Art fosters innovation and accessibility in public spaces.</t>
+          <t>Art galleries can bring experimental art to the public through accessible, everyday spaces.</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -842,7 +842,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Artists and writers collaborate in intimate, adaptable spaces for creative expression.</t>
+          <t>Artists and writers collaborate in intimate, evolving spaces to challenge conventional exhibition and</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -865,7 +865,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Art fosters community growth and accessibility through creative expression and support.</t>
+          <t>Art fosters community empowerment and transformation through accessible creative expression.</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Artistic spaces evolve and adapt to foster diverse, cross-disciplinary creative expressions</t>
+          <t>Collaboration and innovation drive multidisciplinary artistic exploration and community engagement.</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -934,7 +934,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Art and community intersect to foster creative experimentation and social engagement.</t>
+          <t>Artists collaborate to create dynamic, interdisciplinary spaces for experimentation and community engagement.</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -957,7 +957,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Contemporary art thrives through collaborative spaces and direct creator-collector connections</t>
+          <t>Contemporary art is fostered through collaborative exhibitions and direct artist engagement.</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -980,7 +980,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Art and everyday life intersect through experimental, itinerant curation.</t>
+          <t>Art spaces evolve, fostering contemporary creativity and community engagement through diverse, often</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Art fosters community engagement and cultural exchange across borders.</t>
+          <t>Art fosters community engagement and cultural exchange through exhibitions, workshops, and collaborative</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1026,7 +1026,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Art supports and advocates for artists' professional growth and societal engagement.</t>
+          <t>Art fosters community and professional growth among visual artists.</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1049,7 +1049,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Artistic spaces foster creativity, community, and diverse contemporary art experiences.</t>
+          <t>Artistic spaces foster diverse contemporary creation and community engagement.</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1072,7 +1072,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Contemporary art spaces foster creativity and diversity amidst evolving cultural and economic landscapes.</t>
+          <t>Contemporary art spaces foster creativity and diversity amidst evolving challenges.</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1095,7 +1095,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Artists collaborate to challenge traditional art boundaries and foster discourse.</t>
+          <t>Collaboration and conversation drive artistic exploration and community building.</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1118,7 +1118,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Artists collaborate and share spaces to foster global creative community.</t>
+          <t>Artists collaborate and exhibit in a repurposed industrial space.</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1141,7 +1141,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Art spaces can foster social change through collaborative, accessible cultural creation and education.</t>
+          <t>Art and education spaces should foster community engagement and social progress.</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1164,7 +1164,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Art initiatives bridge local and international contemporary art scenes.</t>
+          <t>The text discusses initiatives bridging local and international contemporary art scenes.</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1187,7 +1187,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Artists collaborate to preserve and exhibit ephemeral, personally significant works.</t>
+          <t>Art preserves and transforms personal and communal histories.</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Artistic collaboration fosters creativity and community growth.</t>
+          <t>Artistic collaboration and community engagement foster creative growth.</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1233,7 +1233,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>The text explores how diverse groups maximize their capabilities through collaborative, adaptive processes.</t>
+          <t>Collaboration and adaptation drive collective creative and productive endeavors.</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1279,7 +1279,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Art and technology foster creativity and community in repurposed industrial spaces.</t>
+          <t>Artistic spaces thrive in temporary, interconnected, and precarious ecosystems.</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1302,7 +1302,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Art fosters interdisciplinary experimentation and innovation.</t>
+          <t>Art fosters interdisciplinary experimentation and innovation through diverse, evolving programs.</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1325,7 +1325,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Art fosters interdisciplinary exploration and continuous evolution.</t>
+          <t>Art fosters interdisciplinary exploration and continuous innovation.</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1348,7 +1348,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Artists independently create, exhibit, and publish diverse projects in a shared,</t>
+          <t>Artistic independence thrives through self-financed, multifaceted creative</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1371,7 +1371,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Art transcends traditional spaces to blend various mediums and realities.</t>
+          <t>Contemporary art defies conventional spaces and mediums.</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1394,7 +1394,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Artists collaborate and innovate in shared, supportive communities.</t>
+          <t>Artists collaborate and innovate in shared, adaptable creative spaces.</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Contemporary art is defended and explored through collaborative, educational initiatives.</t>
+          <t>Artistic collaboration fosters dynamic, inclusive contemporary art experiences.</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1440,7 +1440,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Collaboration between artists and curators fosters innovative, undiluted creative</t>
+          <t>Collaboration between artists and curators fosters innovative, experimental art exhibitions.</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1463,7 +1463,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Artists collaborate and exhibit in shared, accessible spaces to foster creativity and community</t>
+          <t>Artists collaborate and exhibit in shared, affordable urban spaces to foster creativity and</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1486,7 +1486,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Art transforms everyday spaces into intimate, personal exhibition experiences.</t>
+          <t>Artists transform private and public spaces into unconventional, intimate galleries.</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1509,7 +1509,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Artistic collaboration fosters community engagement and multidisciplinary experimentation.</t>
+          <t>Art fosters community engagement and interdisciplinary collaboration through experimental spaces.</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1532,7 +1532,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Artists collaborate and innovate in a self-directed, shared creative space.</t>
+          <t>Artists collaborate and innovate within a shared, repurposed industrial space</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Artists collaborate to create open, experimental spaces for contemporary art discourse.</t>
+          <t>Artistic collaboration and adaptability foster innovative, community-driven art spaces.</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1578,7 +1578,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Art fosters global collaboration and addresses societal issues through diverse, temporary projects.</t>
+          <t>Art fosters global exchange and addresses societal issues through collaborative, interdisciplinary projects.</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1601,7 +1601,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Artists collectively explore and redefine their roles and spaces in contemporary society.</t>
+          <t>Artists collaborate to redefine spaces and roles in contemporary art.</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Artistic spaces foster diverse, experimental communities.</t>
+          <t>Artistic spaces foster community and creativity through unconventional, inclusive practices.</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -1647,7 +1647,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Supporting emerging artists, contemporary art centers foster creative growth and cultural dialogue.</t>
+          <t>Art centers foster and exhibit emerging contemporary art, promoting cultural dialogue and artistic growth</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -1670,7 +1670,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Artist-run centers foster community engagement and promote contemporary art through diverse programming and resources</t>
+          <t>Art centers foster community engagement and artistic growth through diverse programs and resources.</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -1693,7 +1693,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>This organization supports and showcases emerging and established artists, fostering innovation and</t>
+          <t>Supporting and showcasing emerging artists drives innovative contemporary art.</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -1716,7 +1716,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Abandoned spaces can foster new life, art, and community.</t>
+          <t>Art can transform neglected spaces into vibrant, communal environments.</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Art spaces foster international collaboration and visibility for local contemporary artists.</t>
+          <t>Art spaces foster international exchange and visibility for local contemporary art.</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -1762,7 +1762,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Contemporary art fosters intimate connections and shared experiences between artists and audiences.</t>
+          <t>Contemporary art fosters intimate connections and shared experiences through community engagement.</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -1785,7 +1785,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Art and culture foster connections across ages and backgrounds.</t>
+          <t>Art and culture foster connection and expression across diverse groups.</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -1808,7 +1808,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Art fosters dialogue and community engagement through diverse, risk-taking artistic expressions</t>
+          <t>Art fosters dialogue and critical discourse within diverse communities.</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Artists collaborate to create and challenge traditional exhibition formats.</t>
+          <t>Artists collectively foster experimental creation and shared experiences.</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -1854,7 +1854,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Artists collaborate to create spaces fostering contemporary art dialogue and growth.</t>
+          <t>Artists collaboratively foster and expand contemporary art's influence and dialogue.</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -1877,7 +1877,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Art and culture revitalize former industrial spaces into vibrant communities.</t>
+          <t>Industrial spaces are repurposed to foster contemporary art and cultural exchange.</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -1900,7 +1900,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Artistic evolution and cultural exchange thrive in dynamic, adaptive spaces.</t>
+          <t>Artistic evolution and cultural exchange thrive within dynamic, adaptable spaces.</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -1923,7 +1923,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Contemporary art spaces foster innovation, education, and collaboration among emerging artists.</t>
+          <t>The main theme of the text is the fostering of contemporary art through collaborative</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -1946,7 +1946,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Artists collaborate to create shared, independent studio and exhibition spaces.</t>
+          <t>Artists collaborate and create in shared, independent studio spaces.</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -1969,7 +1969,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Collaboration and adaptability foster artistic experimentation and growth.</t>
+          <t>Collaboration and adaptability drive innovative artistic expression and growth.</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -1992,7 +1992,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Art fosters innovation and connection outside traditional institutional frameworks.</t>
+          <t>Contemporary art spaces foster creativity, experimentation, and community engagement beyond traditional boundaries</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2015,7 +2015,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Art spaces foster emerging artists and interdisciplinary collaboration.</t>
+          <t>Art spaces foster emerging artists' growth and community engagement through diverse media and education</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">

--- a/Mon Code/topic_analysis_details.xlsx
+++ b/Mon Code/topic_analysis_details.xlsx
@@ -474,7 +474,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>The main theme is fostering artistic collaboration and growth through shared, non-com</t>
+          <t>Collaboration and shared experimentation foster artistic growth and community.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -497,7 +497,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Artist-run spaces foster unique, boundary-pushing contemporary art experiences.</t>
+          <t>Artist-run spaces foster unique, community-driven contemporary art experiences and exhibitions.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Art and community can thrive even under restrictive conditions.</t>
+          <t>Art and community thrive amidst historical and political contexts.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -543,7 +543,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Contemporary art fosters cultural dialogue and nurtures artistic innovation.</t>
+          <t>Contemporary art fosters cultural dialogue and nurtures emerging artists.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -566,7 +566,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>The main theme is fostering community engagement through shared information and cultural experiences.</t>
+          <t>The project emphasizes community-driven information sharing and cultural engagement across various media.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -589,7 +589,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Artists find collective purpose and collaboration through shared space and experiences.</t>
+          <t>Artists transform a found space into a collaborative exhibition venue.</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -612,7 +612,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Artists challenge conventional boundaries to foster community and critical discourse through experimental, collaborative</t>
+          <t>Artists challenge conventional boundaries to foster community and critical dialogue through collaborative spaces.</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -658,7 +658,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Art and creativity thrive in inclusive, collaborative, and affordable community spaces.</t>
+          <t>Art and creativity thrive in collaborative, accessible, and experimental spaces.</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -704,7 +704,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Community spaces foster creativity and collaboration across various media and artistic disciplines.</t>
+          <t>Community-driven spaces foster creative and technological innovation.</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -750,7 +750,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Art can transform and activate underutilized spaces for community engagement.</t>
+          <t>Art can transform and activate underutilized urban spaces through community engagement and free</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -773,7 +773,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Emerging artists, especially women, are championed and given platforms to showcase</t>
+          <t>Emerging artists, especially women, find platforms for exposure and growth through innovative</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -796,7 +796,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>The text explores the fusion of visual art and writing in contemporary artistic practices and</t>
+          <t>The text discusses the fusion of visual art and writing to challenge and innovate</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Art galleries can bring experimental art to the public through accessible, everyday spaces.</t>
+          <t>Art galleries in urban underground spaces foster experimental art and daily public engagement.</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -842,7 +842,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Artists and writers collaborate in intimate, evolving spaces to challenge conventional exhibition and</t>
+          <t>Artistic expression thrives in adaptable, intimate spaces despite logistical challenges</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Collaboration and innovation drive multidisciplinary artistic exploration and community engagement.</t>
+          <t>Art and culture spaces evolve and adapt to foster diverse, interdisciplinary artistic expressions and</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -911,7 +911,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Art fosters global dialogue and supports local artists amidst changing cultural landscapes.</t>
+          <t>This space fosters international artistic exchange and supports local artists through exhibitions, resid</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -934,7 +934,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Artists collaborate to create dynamic, interdisciplinary spaces for experimentation and community engagement.</t>
+          <t>Artists collaborate to create dynamic, socially engaged spaces for experimentation and community interaction</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -957,7 +957,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Contemporary art is fostered through collaborative exhibitions and direct artist engagement.</t>
+          <t>Art fosters collaboration and direct connections between creators and audiences.</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -980,7 +980,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Art spaces evolve, fostering contemporary creativity and community engagement through diverse, often</t>
+          <t>Art spaces evolve to showcase diverse, often whimsical contemporary art and performances</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1026,7 +1026,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Art fosters community and professional growth among visual artists.</t>
+          <t>Art fosters interaction and professional growth among artists and society.</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1049,7 +1049,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Artistic spaces foster diverse contemporary creation and community engagement.</t>
+          <t>Artistic spaces foster discovery, exchange, and community among creators and viewers.</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1095,7 +1095,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Collaboration and conversation drive artistic exploration and community building.</t>
+          <t>Artists collaborate to challenge traditional art boundaries and foster dialogue.</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1118,7 +1118,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Artists collaborate and exhibit in a repurposed industrial space.</t>
+          <t>Artistic collaboration and community thrive in repurposed industrial spaces.</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1141,7 +1141,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Art and education spaces should foster community engagement and social progress.</t>
+          <t>Art and education spaces can drive societal progress through community engagement and innovative creation.</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1164,7 +1164,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>The text discusses initiatives bridging local and international contemporary art scenes.</t>
+          <t>Art initiatives strive to bridge local contemporary art scenes with the global community.</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1187,7 +1187,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Art preserves and transforms personal and communal histories.</t>
+          <t>Art preserves and transforms spaces through personal, ephemeral gestures.</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Artistic collaboration and community engagement foster creative growth.</t>
+          <t>Artistic collaboration fosters creative growth and community engagement.</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1233,7 +1233,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Collaboration and adaptation drive collective creative and productive endeavors.</t>
+          <t>The collective strives for optimal output and adaptability through diverse collaborative efforts.</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1256,7 +1256,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Artistic experimentation and community engagement through evolving exhibition spaces.</t>
+          <t>Artistic experimentation and community engagement through diverse exhibition spaces.</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1279,7 +1279,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Artistic spaces thrive in temporary, interconnected, and precarious ecosystems.</t>
+          <t>Artistic spaces and communities thrive in temporary, interconnected, and precarious environments</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1302,7 +1302,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Art fosters interdisciplinary experimentation and innovation through diverse, evolving programs.</t>
+          <t>Art fosters interdisciplinary experimentation and challenges traditional boundaries.</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1325,7 +1325,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Art fosters interdisciplinary exploration and continuous innovation.</t>
+          <t>Artistic exploration and interdisciplinary collaboration drive contemporary art production and dissemination.</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1348,7 +1348,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Artistic independence thrives through self-financed, multifaceted creative</t>
+          <t>Artistic spaces foster independent creation, production, and diverse cultural events.</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1371,7 +1371,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Contemporary art defies conventional spaces and mediums.</t>
+          <t>Contemporary art is displayed in unconventional, immersive spaces.</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1394,7 +1394,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Artists collaborate and innovate in shared, adaptable creative spaces.</t>
+          <t>Artists collaborate and innovate in shared, repurposed industrial spaces.</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Artistic collaboration fosters dynamic, inclusive contemporary art experiences.</t>
+          <t>Contemporary art is defended and explored through collaborative, educational, and community-driven</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1463,7 +1463,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Artists collaborate and exhibit in shared, affordable urban spaces to foster creativity and</t>
+          <t>The text describes a collaborative space fostering creativity and professional growth for emerging artists</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1486,7 +1486,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Artists transform private and public spaces into unconventional, intimate galleries.</t>
+          <t>Artists transform personal spaces into unconventional, immersive exhibition experiences.</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1509,7 +1509,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Art fosters community engagement and interdisciplinary collaboration through experimental spaces.</t>
+          <t>Artistic collaboration fosters community engagement and multidisciplinary creativity.</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1532,7 +1532,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Artists collaborate and innovate within a shared, repurposed industrial space</t>
+          <t>The text describes a community dedicated to fostering artistic experimentation, learning, and</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1578,7 +1578,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Art fosters global exchange and addresses societal issues through collaborative, interdisciplinary projects.</t>
+          <t>Art fosters global collaboration and addresses societal issues through diverse, time-bound projects</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1601,7 +1601,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Artists collaborate to redefine spaces and roles in contemporary art.</t>
+          <t>Artists collaboratively explore and redefine shared spaces to foster collective growth and</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Artistic spaces foster community and creativity through unconventional, inclusive practices.</t>
+          <t>Artistic spaces foster unconventional community and creativity.</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -1647,7 +1647,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Art centers foster and exhibit emerging contemporary art, promoting cultural dialogue and artistic growth</t>
+          <t>Supporting and promoting emerging artists is crucial for contemporary art's growth and cultural</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -1670,7 +1670,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Art centers foster community engagement and artistic growth through diverse programs and resources.</t>
+          <t>Community-driven art centers foster printmaking and contemporary art engagement.</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -1693,7 +1693,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Supporting and showcasing emerging artists drives innovative contemporary art.</t>
+          <t>Supporting and showcasing emerging artists drives innovative contemporary art experiences.</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -1716,7 +1716,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Art can transform neglected spaces into vibrant, communal environments.</t>
+          <t>Abandoned spaces can foster wild ecosystems and new collective creativity.</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Art spaces foster international exchange and visibility for local contemporary art.</t>
+          <t>Contemporary art spaces foster creativity, collaboration, and international visibility.</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -1762,7 +1762,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Contemporary art fosters intimate connections and shared experiences through community engagement.</t>
+          <t>Contemporary art fosters intimate connections and shared experiences through exhibitions and community engagement</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -1785,7 +1785,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Art and culture foster connection and expression across diverse groups.</t>
+          <t>Art and cultural exchange foster connection and understanding across diverse groups.</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -1808,7 +1808,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Art fosters dialogue and critical discourse within diverse communities.</t>
+          <t>Art fosters dialogue and community engagement through diverse, risk-taking artistic expressions</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Artists collectively foster experimental creation and shared experiences.</t>
+          <t>Artists collaborate to challenge traditional exhibition formats and support experimental art creation.</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -1854,7 +1854,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Artists collaboratively foster and expand contemporary art's influence and dialogue.</t>
+          <t>Artists collaborate to create and promote contemporary art and its creators.</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -1877,7 +1877,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Industrial spaces are repurposed to foster contemporary art and cultural exchange.</t>
+          <t>Art and culture revitalize abandoned industrial spaces into vibrant communities.</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -1923,7 +1923,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>The main theme of the text is the fostering of contemporary art through collaborative</t>
+          <t>Contemporary art spaces foster innovation, education, and collaboration among creators.</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -1969,7 +1969,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Collaboration and adaptability drive innovative artistic expression and growth.</t>
+          <t>Collaboration and adaptability foster innovative artistic expression and growth.</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -1992,7 +1992,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Contemporary art spaces foster creativity, experimentation, and community engagement beyond traditional boundaries</t>
+          <t>The space fosters contemporary art experimentation and community engagement beyond traditional gallery constraints.</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2015,7 +2015,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Art spaces foster emerging artists' growth and community engagement through diverse media and education</t>
+          <t>Art spaces foster growth and collaboration among contemporary artists.</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
